--- a/assets/document/data-latih/Book1.xlsx
+++ b/assets/document/data-latih/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arlan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCB0DB49-1103-4456-8BF6-0982814DC56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BE8C396-87A4-480E-A628-66D2BC1DA757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3090" windowWidth="29040" windowHeight="16080" xr2:uid="{70DCFC46-5DDB-43D5-AB96-8FB5830DBE0B}"/>
+    <workbookView xWindow="-24045" yWindow="-1920" windowWidth="20700" windowHeight="11565" xr2:uid="{50BDED58-6943-435A-8661-E219452A30B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>SIMON SENA SOKA</t>
   </si>
@@ -175,159 +175,6 @@
   </si>
   <si>
     <t>Heribertus Kobo 2akae</t>
-  </si>
-  <si>
-    <t>Yakobus Alta Saleh</t>
-  </si>
-  <si>
-    <t>YAIRUS ARYANTO NAU</t>
-  </si>
-  <si>
-    <t>Anthony Eprichandino Sogen</t>
-  </si>
-  <si>
-    <t>FEBIANA APLONIA SABINA SERAN</t>
-  </si>
-  <si>
-    <t>Gildesianus J. M. Naiboas</t>
-  </si>
-  <si>
-    <t>Maria Jenis Dana Mudaj</t>
-  </si>
-  <si>
-    <t>Maria Jemiana Kewa Mudaj</t>
-  </si>
-  <si>
-    <t>Agustinus Deli Vio Ture</t>
-  </si>
-  <si>
-    <t>2..50</t>
-  </si>
-  <si>
-    <t>Valerianus Apriatmo</t>
-  </si>
-  <si>
-    <t>Dion B. Sarmento</t>
-  </si>
-  <si>
-    <t>Aprianus Paskalis Mau</t>
-  </si>
-  <si>
-    <t>Amelia Prihastiwi Tokoh</t>
-  </si>
-  <si>
-    <t>Jassica Herman Lakar</t>
-  </si>
-  <si>
-    <t>Adesaputra Trimaryanto Bilaut</t>
-  </si>
-  <si>
-    <t>Maria Octemida Ximenes Barros</t>
-  </si>
-  <si>
-    <t>Konny Hendri Mboeik</t>
-  </si>
-  <si>
-    <t>Valentinus Maria Nahak</t>
-  </si>
-  <si>
-    <t>Hironimus Mikhael Tefa</t>
-  </si>
-  <si>
-    <t>Dominikus Dolu Puka</t>
-  </si>
-  <si>
-    <t>Zita Diniasni Bulu</t>
-  </si>
-  <si>
-    <t>Floridus Adiyanto Manek Seran</t>
-  </si>
-  <si>
-    <t>Andi Yohanes Nusin</t>
-  </si>
-  <si>
-    <t>Eugebio Cardoso Quintao</t>
-  </si>
-  <si>
-    <t>Ariyanto Karmakani</t>
-  </si>
-  <si>
-    <t>Laxmi Declaudya Ratu Raja</t>
-  </si>
-  <si>
-    <t>Marianus Rahmatino Dangur</t>
-  </si>
-  <si>
-    <t>Calvintianus Adrianus Fahik</t>
-  </si>
-  <si>
-    <t>Novenrius Kornelius Sera</t>
-  </si>
-  <si>
-    <t>Pedro Vasco Ribeiro</t>
-  </si>
-  <si>
-    <t>Albertus Meze Wula</t>
-  </si>
-  <si>
-    <t>Albert Klau Seran</t>
-  </si>
-  <si>
-    <t>Romana Claudia Kenshi Balla</t>
-  </si>
-  <si>
-    <t>Januarius Doddy Luman</t>
-  </si>
-  <si>
-    <t>Simon Petrus</t>
-  </si>
-  <si>
-    <t>Irenius Nong Tris Watu</t>
-  </si>
-  <si>
-    <t>Gregorio Antonio Alves</t>
-  </si>
-  <si>
-    <t>Yuventus Eli Salu</t>
-  </si>
-  <si>
-    <t>Wemci S.P.H Kaynara</t>
-  </si>
-  <si>
-    <t>Eduardus Wence</t>
-  </si>
-  <si>
-    <t>Anselmo Rodrigues Lopes</t>
-  </si>
-  <si>
-    <t>Octoviano Antonio Francisco</t>
-  </si>
-  <si>
-    <t>Yabeston Ajupri Pitay</t>
-  </si>
-  <si>
-    <t>Yudith Arunika Cempaka Wella</t>
-  </si>
-  <si>
-    <t>Vergilius Gonsales Due</t>
-  </si>
-  <si>
-    <t>Nunu Alves</t>
-  </si>
-  <si>
-    <t>Victor Oktovianus Edon</t>
-  </si>
-  <si>
-    <t>Henri Kristian Klau</t>
-  </si>
-  <si>
-    <t>Nixen Vertsmen Eldio Senak</t>
-  </si>
-  <si>
-    <t>Sonia Agustin Rahmawati Loya</t>
-  </si>
-  <si>
-    <t>Nomensia Carolina Febriyanti Tombor</t>
   </si>
 </sst>
 </file>
@@ -714,11 +561,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5CF198-6F78-4C18-B3BB-8C5C015B4D0C}">
-  <dimension ref="A1:M100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCE0798-8B00-418C-8015-C52D8E1D8C51}">
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M100"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2773,2056 +2620,6 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>22116089</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" s="1">
-        <v>1</v>
-      </c>
-      <c r="D51" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E51" s="2">
-        <v>2.12</v>
-      </c>
-      <c r="F51" s="2">
-        <v>2.08</v>
-      </c>
-      <c r="G51" s="2">
-        <v>2.08</v>
-      </c>
-      <c r="H51" s="3">
-        <v>2</v>
-      </c>
-      <c r="I51" s="3">
-        <v>0</v>
-      </c>
-      <c r="J51" s="3">
-        <v>0</v>
-      </c>
-      <c r="K51" s="2">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2">
-        <v>0</v>
-      </c>
-      <c r="M51" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>22116090</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" s="1">
-        <v>1</v>
-      </c>
-      <c r="D52" s="2">
-        <v>2.67</v>
-      </c>
-      <c r="E52" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="F52" s="2">
-        <v>2.44</v>
-      </c>
-      <c r="G52" s="2">
-        <v>2.35</v>
-      </c>
-      <c r="H52" s="3">
-        <v>2</v>
-      </c>
-      <c r="I52" s="3">
-        <v>2</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="2">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>22116092</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" s="1">
-        <v>1</v>
-      </c>
-      <c r="D53" s="2">
-        <v>2.89</v>
-      </c>
-      <c r="E53" s="2">
-        <v>3.01</v>
-      </c>
-      <c r="F53" s="2">
-        <v>2.97</v>
-      </c>
-      <c r="G53" s="2">
-        <v>3.03</v>
-      </c>
-      <c r="H53" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="I53" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="J53" s="3">
-        <v>2</v>
-      </c>
-      <c r="K53" s="3">
-        <v>3</v>
-      </c>
-      <c r="L53" s="3">
-        <v>4</v>
-      </c>
-      <c r="M53" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>22116096</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C54" s="1">
-        <v>2</v>
-      </c>
-      <c r="D54" s="2">
-        <v>2.89</v>
-      </c>
-      <c r="E54" s="2">
-        <v>3.06</v>
-      </c>
-      <c r="F54" s="2">
-        <v>3.13</v>
-      </c>
-      <c r="G54" s="2">
-        <v>3.17</v>
-      </c>
-      <c r="H54" s="2">
-        <v>3</v>
-      </c>
-      <c r="I54" s="2">
-        <v>3</v>
-      </c>
-      <c r="J54" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="K54" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="L54" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="M54" s="2">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>22116083</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55" s="1">
-        <v>1</v>
-      </c>
-      <c r="D55" s="2">
-        <v>1.78</v>
-      </c>
-      <c r="E55" s="2">
-        <v>1.65</v>
-      </c>
-      <c r="F55" s="2">
-        <v>1.18</v>
-      </c>
-      <c r="G55" s="2">
-        <v>1.18</v>
-      </c>
-      <c r="H55" s="2">
-        <v>0</v>
-      </c>
-      <c r="I55" s="2">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2">
-        <v>0</v>
-      </c>
-      <c r="K55" s="2">
-        <v>0</v>
-      </c>
-      <c r="L55" s="2">
-        <v>0</v>
-      </c>
-      <c r="M55" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>22117001</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C56" s="1">
-        <v>2</v>
-      </c>
-      <c r="D56" s="2">
-        <v>3.61</v>
-      </c>
-      <c r="E56" s="2">
-        <v>3.66</v>
-      </c>
-      <c r="F56" s="2">
-        <v>3.66</v>
-      </c>
-      <c r="G56" s="2">
-        <v>3.63</v>
-      </c>
-      <c r="H56" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="I56" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="J56" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="K56" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="L56" s="3">
-        <v>2</v>
-      </c>
-      <c r="M56" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>22117002</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C57" s="1">
-        <v>2</v>
-      </c>
-      <c r="D57" s="2">
-        <v>3.66</v>
-      </c>
-      <c r="E57" s="2">
-        <v>3.68</v>
-      </c>
-      <c r="F57" s="2">
-        <v>3.66</v>
-      </c>
-      <c r="G57" s="2">
-        <v>3.67</v>
-      </c>
-      <c r="H57" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="I57" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="J57" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="K57" s="3">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3">
-        <v>2</v>
-      </c>
-      <c r="M57" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>22117003</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C58" s="1">
-        <v>1</v>
-      </c>
-      <c r="D58" s="2">
-        <v>2.59</v>
-      </c>
-      <c r="E58" s="2">
-        <v>2.57</v>
-      </c>
-      <c r="F58" s="2">
-        <v>2.77</v>
-      </c>
-      <c r="G58" s="2">
-        <v>2.88</v>
-      </c>
-      <c r="H58" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J58" s="3">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3">
-        <v>2</v>
-      </c>
-      <c r="L58" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="M58" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>22117006</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" s="1">
-        <v>1</v>
-      </c>
-      <c r="D59" s="2">
-        <v>2.64</v>
-      </c>
-      <c r="E59" s="2">
-        <v>2.85</v>
-      </c>
-      <c r="F59" s="2">
-        <v>2.82</v>
-      </c>
-      <c r="G59" s="2">
-        <v>2.86</v>
-      </c>
-      <c r="H59" s="3">
-        <v>2</v>
-      </c>
-      <c r="I59" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="J59" s="3">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="M59" s="3">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>22117007</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" s="1">
-        <v>1</v>
-      </c>
-      <c r="D60" s="2">
-        <v>3.73</v>
-      </c>
-      <c r="E60" s="2">
-        <v>3.53</v>
-      </c>
-      <c r="F60" s="2">
-        <v>3.44</v>
-      </c>
-      <c r="G60" s="2">
-        <v>3.45</v>
-      </c>
-      <c r="H60" s="3">
-        <v>3</v>
-      </c>
-      <c r="I60" s="3">
-        <v>3</v>
-      </c>
-      <c r="J60" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="K60" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="L60" s="3">
-        <v>2</v>
-      </c>
-      <c r="M60" s="3">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>22117012</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C61" s="1">
-        <v>1</v>
-      </c>
-      <c r="D61" s="2">
-        <v>2.9</v>
-      </c>
-      <c r="E61" s="2">
-        <v>2.69</v>
-      </c>
-      <c r="F61" s="2">
-        <v>2.73</v>
-      </c>
-      <c r="G61" s="2">
-        <v>2.86</v>
-      </c>
-      <c r="H61" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="I61" s="3">
-        <v>3</v>
-      </c>
-      <c r="J61" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="K61" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="L61" s="3">
-        <v>3</v>
-      </c>
-      <c r="M61" s="3">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>22117013</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" s="1">
-        <v>2</v>
-      </c>
-      <c r="D62" s="2">
-        <v>3.2</v>
-      </c>
-      <c r="E62" s="2">
-        <v>3.05</v>
-      </c>
-      <c r="F62" s="2">
-        <v>2.62</v>
-      </c>
-      <c r="G62" s="2">
-        <v>2.17</v>
-      </c>
-      <c r="H62" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3">
-        <v>2</v>
-      </c>
-      <c r="L62" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="M62" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>22117014</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C63" s="1">
-        <v>2</v>
-      </c>
-      <c r="D63" s="2">
-        <v>3.36</v>
-      </c>
-      <c r="E63" s="2">
-        <v>2.97</v>
-      </c>
-      <c r="F63" s="2">
-        <v>2.86</v>
-      </c>
-      <c r="G63" s="2">
-        <v>2.54</v>
-      </c>
-      <c r="H63" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="I63" s="3">
-        <v>3</v>
-      </c>
-      <c r="J63" s="3">
-        <v>0</v>
-      </c>
-      <c r="K63" s="3">
-        <v>3</v>
-      </c>
-      <c r="L63" s="3">
-        <v>0</v>
-      </c>
-      <c r="M63" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>22117016</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C64" s="1">
-        <v>1</v>
-      </c>
-      <c r="D64" s="2">
-        <v>2.75</v>
-      </c>
-      <c r="E64" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F64" s="2">
-        <v>2.34</v>
-      </c>
-      <c r="G64" s="2">
-        <v>2.38</v>
-      </c>
-      <c r="H64" s="3">
-        <v>2</v>
-      </c>
-      <c r="I64" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="J64" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="K64" s="3">
-        <v>2</v>
-      </c>
-      <c r="L64" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="M64" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>22117017</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C65" s="1">
-        <v>2</v>
-      </c>
-      <c r="D65" s="2">
-        <v>3.11</v>
-      </c>
-      <c r="E65" s="2">
-        <v>3.25</v>
-      </c>
-      <c r="F65" s="2">
-        <v>3.24</v>
-      </c>
-      <c r="G65" s="2">
-        <v>3.22</v>
-      </c>
-      <c r="H65" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="I65" s="3">
-        <v>3</v>
-      </c>
-      <c r="J65" s="3">
-        <v>2</v>
-      </c>
-      <c r="K65" s="3">
-        <v>2</v>
-      </c>
-      <c r="L65" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="M65" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>22117020</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C66" s="1">
-        <v>1</v>
-      </c>
-      <c r="D66" s="2">
-        <v>2.66</v>
-      </c>
-      <c r="E66" s="2">
-        <v>2.75</v>
-      </c>
-      <c r="F66" s="2">
-        <v>2.81</v>
-      </c>
-      <c r="G66" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="H66" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="I66" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="J66" s="3">
-        <v>2</v>
-      </c>
-      <c r="K66" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="L66" s="3">
-        <v>2</v>
-      </c>
-      <c r="M66" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>22117021</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C67" s="1">
-        <v>1</v>
-      </c>
-      <c r="D67" s="2">
-        <v>3.23</v>
-      </c>
-      <c r="E67" s="2">
-        <v>3.33</v>
-      </c>
-      <c r="F67" s="2">
-        <v>3.37</v>
-      </c>
-      <c r="G67" s="2">
-        <v>3.39</v>
-      </c>
-      <c r="H67" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="I67" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="J67" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="K67" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="L67" s="3">
-        <v>3</v>
-      </c>
-      <c r="M67" s="3">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>22117022</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C68" s="1">
-        <v>1</v>
-      </c>
-      <c r="D68" s="2">
-        <v>2.68</v>
-      </c>
-      <c r="E68" s="2">
-        <v>2.73</v>
-      </c>
-      <c r="F68" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="G68" s="2">
-        <v>2.12</v>
-      </c>
-      <c r="H68" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="I68" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="J68" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="K68" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="L68" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="M68" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>22117023</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C69" s="1">
-        <v>1</v>
-      </c>
-      <c r="D69" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="E69" s="2">
-        <v>2.61</v>
-      </c>
-      <c r="F69" s="2">
-        <v>2.44</v>
-      </c>
-      <c r="G69" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H69" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="I69" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="J69" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="K69" s="3">
-        <v>3</v>
-      </c>
-      <c r="L69" s="3">
-        <v>3</v>
-      </c>
-      <c r="M69" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>22117025</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C70" s="1">
-        <v>2</v>
-      </c>
-      <c r="D70" s="2">
-        <v>3.2</v>
-      </c>
-      <c r="E70" s="2">
-        <v>3.31</v>
-      </c>
-      <c r="F70" s="2">
-        <v>3.34</v>
-      </c>
-      <c r="G70" s="2">
-        <v>3.37</v>
-      </c>
-      <c r="H70" s="3">
-        <v>3</v>
-      </c>
-      <c r="I70" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="J70" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="K70" s="3">
-        <v>2</v>
-      </c>
-      <c r="L70" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="M70" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>22117026</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C71" s="1">
-        <v>1</v>
-      </c>
-      <c r="D71" s="2">
-        <v>1.91</v>
-      </c>
-      <c r="E71" s="2">
-        <v>1.93</v>
-      </c>
-      <c r="F71" s="2">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="G71" s="2">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="H71" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I71" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="J71" s="3">
-        <v>3</v>
-      </c>
-      <c r="K71" s="3">
-        <v>3</v>
-      </c>
-      <c r="L71" s="3">
-        <v>2</v>
-      </c>
-      <c r="M71" s="3">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>22117029</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="1">
-        <v>1</v>
-      </c>
-      <c r="D72" s="2">
-        <v>2.86</v>
-      </c>
-      <c r="E72" s="2">
-        <v>2.74</v>
-      </c>
-      <c r="F72" s="2">
-        <v>2.73</v>
-      </c>
-      <c r="G72" s="2">
-        <v>2.61</v>
-      </c>
-      <c r="H72" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I72" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="J72" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="K72" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="L72" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="M72" s="3">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>22117031</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C73" s="1">
-        <v>1</v>
-      </c>
-      <c r="D73" s="2">
-        <v>2.95</v>
-      </c>
-      <c r="E73" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="F73" s="2">
-        <v>2.89</v>
-      </c>
-      <c r="G73" s="2">
-        <v>2.89</v>
-      </c>
-      <c r="H73" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I73" s="3">
-        <v>3</v>
-      </c>
-      <c r="J73" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="K73" s="3">
-        <v>2</v>
-      </c>
-      <c r="L73" s="3">
-        <v>2</v>
-      </c>
-      <c r="M73" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>22117032</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C74" s="1">
-        <v>1</v>
-      </c>
-      <c r="D74" s="2">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="E74" s="2">
-        <v>2.25</v>
-      </c>
-      <c r="F74" s="2">
-        <v>1.97</v>
-      </c>
-      <c r="G74" s="2">
-        <v>2.08</v>
-      </c>
-      <c r="H74" s="3">
-        <v>2</v>
-      </c>
-      <c r="I74" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="J74" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="K74" s="3">
-        <v>2</v>
-      </c>
-      <c r="L74" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="M74" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>22117033</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C75" s="1">
-        <v>2</v>
-      </c>
-      <c r="D75" s="2">
-        <v>2.93</v>
-      </c>
-      <c r="E75" s="2">
-        <v>2.85</v>
-      </c>
-      <c r="F75" s="2">
-        <v>2.9</v>
-      </c>
-      <c r="G75" s="2">
-        <v>2.9</v>
-      </c>
-      <c r="H75" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I75" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="J75" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="K75" s="3">
-        <v>3</v>
-      </c>
-      <c r="L75" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="M75" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>22117034</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C76" s="1">
-        <v>1</v>
-      </c>
-      <c r="D76" s="2">
-        <v>2.84</v>
-      </c>
-      <c r="E76" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="F76" s="2">
-        <v>2.12</v>
-      </c>
-      <c r="G76" s="2">
-        <v>2.16</v>
-      </c>
-      <c r="H76" s="3">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3">
-        <v>2</v>
-      </c>
-      <c r="K76" s="3">
-        <v>2</v>
-      </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
-      <c r="M76" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>22117035</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C77" s="1">
-        <v>1</v>
-      </c>
-      <c r="D77" s="2">
-        <v>2.98</v>
-      </c>
-      <c r="E77" s="2">
-        <v>3.01</v>
-      </c>
-      <c r="F77" s="2">
-        <v>3.06</v>
-      </c>
-      <c r="G77" s="2">
-        <v>2.95</v>
-      </c>
-      <c r="H77" s="3">
-        <v>3</v>
-      </c>
-      <c r="I77" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="J77" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="K77" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="L77" s="3">
-        <v>3</v>
-      </c>
-      <c r="M77" s="3">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>22117039</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C78" s="1">
-        <v>1</v>
-      </c>
-      <c r="D78" s="2">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="E78" s="2">
-        <v>2.35</v>
-      </c>
-      <c r="F78" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="G78" s="2">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="H78" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="I78" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="J78" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="K78" s="3">
-        <v>3</v>
-      </c>
-      <c r="L78" s="3">
-        <v>3</v>
-      </c>
-      <c r="M78" s="3">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>22117040</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C79" s="1">
-        <v>1</v>
-      </c>
-      <c r="D79" s="2">
-        <v>2</v>
-      </c>
-      <c r="E79" s="2">
-        <v>2</v>
-      </c>
-      <c r="F79" s="2">
-        <v>1.97</v>
-      </c>
-      <c r="G79" s="2">
-        <v>2.04</v>
-      </c>
-      <c r="H79" s="3">
-        <v>2</v>
-      </c>
-      <c r="I79" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="J79" s="3">
-        <v>3</v>
-      </c>
-      <c r="K79" s="3">
-        <v>2</v>
-      </c>
-      <c r="L79" s="3">
-        <v>2</v>
-      </c>
-      <c r="M79" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>22117044</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C80" s="1">
-        <v>1</v>
-      </c>
-      <c r="D80" s="2">
-        <v>3.14</v>
-      </c>
-      <c r="E80" s="2">
-        <v>3</v>
-      </c>
-      <c r="F80" s="2">
-        <v>3.11</v>
-      </c>
-      <c r="G80" s="2">
-        <v>3.13</v>
-      </c>
-      <c r="H80" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="I80" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="J80" s="3">
-        <v>3</v>
-      </c>
-      <c r="K80" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="L80" s="3">
-        <v>3</v>
-      </c>
-      <c r="M80" s="3">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>22117045</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C81" s="1">
-        <v>1</v>
-      </c>
-      <c r="D81" s="2">
-        <v>3.23</v>
-      </c>
-      <c r="E81" s="2">
-        <v>3.14</v>
-      </c>
-      <c r="F81" s="2">
-        <v>3.19</v>
-      </c>
-      <c r="G81" s="2">
-        <v>3.17</v>
-      </c>
-      <c r="H81" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="I81" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="J81" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="K81" s="3">
-        <v>2</v>
-      </c>
-      <c r="L81" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="M81" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>22117047</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C82" s="1">
-        <v>2</v>
-      </c>
-      <c r="D82" s="2">
-        <v>3.32</v>
-      </c>
-      <c r="E82" s="2">
-        <v>3.27</v>
-      </c>
-      <c r="F82" s="2">
-        <v>3.37</v>
-      </c>
-      <c r="G82" s="2">
-        <v>3.38</v>
-      </c>
-      <c r="H82" s="3">
-        <v>3</v>
-      </c>
-      <c r="I82" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="J82" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="K82" s="3">
-        <v>2</v>
-      </c>
-      <c r="L82" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="M82" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>22117048</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C83" s="1">
-        <v>1</v>
-      </c>
-      <c r="D83" s="2">
-        <v>3.05</v>
-      </c>
-      <c r="E83" s="2">
-        <v>2.9</v>
-      </c>
-      <c r="F83" s="2">
-        <v>2.93</v>
-      </c>
-      <c r="G83" s="2">
-        <v>2.96</v>
-      </c>
-      <c r="H83" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I83" s="3">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3">
-        <v>2</v>
-      </c>
-      <c r="L83" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="M83" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>22117051</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C84" s="1">
-        <v>1</v>
-      </c>
-      <c r="D84" s="2">
-        <v>2.95</v>
-      </c>
-      <c r="E84" s="2">
-        <v>2.48</v>
-      </c>
-      <c r="F84" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="G84" s="2">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="H84" s="3">
-        <v>2</v>
-      </c>
-      <c r="I84" s="3">
-        <v>3</v>
-      </c>
-      <c r="J84" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="K84" s="3">
-        <v>2</v>
-      </c>
-      <c r="L84" s="3">
-        <v>2</v>
-      </c>
-      <c r="M84" s="3">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>22117052</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C85" s="1">
-        <v>1</v>
-      </c>
-      <c r="D85" s="2">
-        <v>2.73</v>
-      </c>
-      <c r="E85" s="2">
-        <v>2.73</v>
-      </c>
-      <c r="F85" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="G85" s="2">
-        <v>2.65</v>
-      </c>
-      <c r="H85" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I85" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="J85" s="3">
-        <v>3</v>
-      </c>
-      <c r="K85" s="3">
-        <v>2</v>
-      </c>
-      <c r="L85" s="3">
-        <v>3</v>
-      </c>
-      <c r="M85" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>22117053</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C86" s="1">
-        <v>1</v>
-      </c>
-      <c r="D86" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="E86" s="2">
-        <v>2.17</v>
-      </c>
-      <c r="F86" s="2">
-        <v>2.37</v>
-      </c>
-      <c r="G86" s="2">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="H86" s="3">
-        <v>2</v>
-      </c>
-      <c r="I86" s="3">
-        <v>3</v>
-      </c>
-      <c r="J86" s="3">
-        <v>2</v>
-      </c>
-      <c r="K86" s="3">
-        <v>2</v>
-      </c>
-      <c r="L86" s="3">
-        <v>2</v>
-      </c>
-      <c r="M86" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>22117054</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C87" s="1">
-        <v>1</v>
-      </c>
-      <c r="D87" s="2">
-        <v>3.18</v>
-      </c>
-      <c r="E87" s="2">
-        <v>3</v>
-      </c>
-      <c r="F87" s="2">
-        <v>3.05</v>
-      </c>
-      <c r="G87" s="2">
-        <v>3.17</v>
-      </c>
-      <c r="H87" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="I87" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="J87" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="K87" s="3">
-        <v>2</v>
-      </c>
-      <c r="L87" s="3">
-        <v>3</v>
-      </c>
-      <c r="M87" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>22117055</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C88" s="1">
-        <v>1</v>
-      </c>
-      <c r="D88" s="2">
-        <v>2.35</v>
-      </c>
-      <c r="E88" s="2">
-        <v>1.65</v>
-      </c>
-      <c r="F88" s="2">
-        <v>1.87</v>
-      </c>
-      <c r="G88" s="2">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="H88" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="I88" s="3">
-        <v>3</v>
-      </c>
-      <c r="J88" s="3">
-        <v>2</v>
-      </c>
-      <c r="K88" s="3">
-        <v>2</v>
-      </c>
-      <c r="L88" s="3">
-        <v>2</v>
-      </c>
-      <c r="M88" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>22117056</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C89" s="1">
-        <v>1</v>
-      </c>
-      <c r="D89" s="2">
-        <v>2.23</v>
-      </c>
-      <c r="E89" s="2">
-        <v>2.21</v>
-      </c>
-      <c r="F89" s="2">
-        <v>2.08</v>
-      </c>
-      <c r="G89" s="2">
-        <v>1.87</v>
-      </c>
-      <c r="H89" s="3">
-        <v>2</v>
-      </c>
-      <c r="I89" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="J89" s="3">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3">
-        <v>2</v>
-      </c>
-      <c r="L89" s="3">
-        <v>2</v>
-      </c>
-      <c r="M89" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>22117058</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C90" s="1">
-        <v>1</v>
-      </c>
-      <c r="D90" s="2">
-        <v>1.91</v>
-      </c>
-      <c r="E90" s="2">
-        <v>1.94</v>
-      </c>
-      <c r="F90" s="2">
-        <v>2.12</v>
-      </c>
-      <c r="G90" s="2">
-        <v>2.23</v>
-      </c>
-      <c r="H90" s="3">
-        <v>2</v>
-      </c>
-      <c r="I90" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="J90" s="3">
-        <v>2</v>
-      </c>
-      <c r="K90" s="3">
-        <v>2</v>
-      </c>
-      <c r="L90" s="3">
-        <v>3</v>
-      </c>
-      <c r="M90" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>22117059</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C91" s="1">
-        <v>1</v>
-      </c>
-      <c r="D91" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="E91" s="2">
-        <v>2.42</v>
-      </c>
-      <c r="F91" s="2">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="G91" s="2">
-        <v>2.34</v>
-      </c>
-      <c r="H91" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="I91" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="J91" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="K91" s="3">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3">
-        <v>2</v>
-      </c>
-      <c r="M91" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>22117060</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C92" s="1">
-        <v>1</v>
-      </c>
-      <c r="D92" s="2">
-        <v>2.48</v>
-      </c>
-      <c r="E92" s="2">
-        <v>2.39</v>
-      </c>
-      <c r="F92" s="2">
-        <v>2.39</v>
-      </c>
-      <c r="G92" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H92" s="3">
-        <v>1</v>
-      </c>
-      <c r="I92" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="J92" s="3">
-        <v>0</v>
-      </c>
-      <c r="K92" s="3">
-        <v>0</v>
-      </c>
-      <c r="L92" s="2">
-        <v>0</v>
-      </c>
-      <c r="M92" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>22117061</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C93" s="1">
-        <v>2</v>
-      </c>
-      <c r="D93" s="2">
-        <v>2.73</v>
-      </c>
-      <c r="E93" s="2">
-        <v>2.46</v>
-      </c>
-      <c r="F93" s="2">
-        <v>2.67</v>
-      </c>
-      <c r="G93" s="2">
-        <v>2.86</v>
-      </c>
-      <c r="H93" s="3">
-        <v>2</v>
-      </c>
-      <c r="I93" s="3">
-        <v>3</v>
-      </c>
-      <c r="J93" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="K93" s="3">
-        <v>2</v>
-      </c>
-      <c r="L93" s="3">
-        <v>2</v>
-      </c>
-      <c r="M93" s="3">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>22117062</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C94" s="1">
-        <v>1</v>
-      </c>
-      <c r="D94" s="2">
-        <v>2.9</v>
-      </c>
-      <c r="E94" s="2">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="F94" s="2">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="G94" s="2">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="H94" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I94" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="J94" s="3">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3">
-        <v>2</v>
-      </c>
-      <c r="L94" s="3">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>22117064</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C95" s="1">
-        <v>1</v>
-      </c>
-      <c r="D95" s="2">
-        <v>2.09</v>
-      </c>
-      <c r="E95" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F95" s="2">
-        <v>2.33</v>
-      </c>
-      <c r="G95" s="2">
-        <v>2.41</v>
-      </c>
-      <c r="H95" s="3">
-        <v>2</v>
-      </c>
-      <c r="I95" s="3">
-        <v>3</v>
-      </c>
-      <c r="J95" s="3">
-        <v>3</v>
-      </c>
-      <c r="K95" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="L95" s="3">
-        <v>2</v>
-      </c>
-      <c r="M95" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>22117066</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C96" s="1">
-        <v>1</v>
-      </c>
-      <c r="D96" s="2">
-        <v>3</v>
-      </c>
-      <c r="E96" s="2">
-        <v>2.56</v>
-      </c>
-      <c r="F96" s="2">
-        <v>2.77</v>
-      </c>
-      <c r="G96" s="2">
-        <v>2.94</v>
-      </c>
-      <c r="H96" s="3">
-        <v>2</v>
-      </c>
-      <c r="I96" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="J96" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="K96" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="L96" s="3">
-        <v>4</v>
-      </c>
-      <c r="M96" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>22117067</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C97" s="1">
-        <v>1</v>
-      </c>
-      <c r="D97" s="2">
-        <v>3.3</v>
-      </c>
-      <c r="E97" s="2">
-        <v>2.74</v>
-      </c>
-      <c r="F97" s="2">
-        <v>2.79</v>
-      </c>
-      <c r="G97" s="2">
-        <v>2.74</v>
-      </c>
-      <c r="H97" s="3">
-        <v>2</v>
-      </c>
-      <c r="I97" s="3">
-        <v>3</v>
-      </c>
-      <c r="J97" s="3">
-        <v>3</v>
-      </c>
-      <c r="K97" s="3">
-        <v>2</v>
-      </c>
-      <c r="L97" s="3">
-        <v>2</v>
-      </c>
-      <c r="M97" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>22117070</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C98" s="1">
-        <v>1</v>
-      </c>
-      <c r="D98" s="2">
-        <v>2.84</v>
-      </c>
-      <c r="E98" s="2">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="F98" s="2">
-        <v>2.52</v>
-      </c>
-      <c r="G98" s="2">
-        <v>2.54</v>
-      </c>
-      <c r="H98" s="3">
-        <v>2</v>
-      </c>
-      <c r="I98" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="J98" s="3">
-        <v>3</v>
-      </c>
-      <c r="K98" s="3">
-        <v>2</v>
-      </c>
-      <c r="L98" s="3">
-        <v>3</v>
-      </c>
-      <c r="M98" s="3">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>22117074</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C99" s="1">
-        <v>2</v>
-      </c>
-      <c r="D99" s="2">
-        <v>2.75</v>
-      </c>
-      <c r="E99" s="2">
-        <v>2.63</v>
-      </c>
-      <c r="F99" s="2">
-        <v>2.77</v>
-      </c>
-      <c r="G99" s="2">
-        <v>2.87</v>
-      </c>
-      <c r="H99" s="3">
-        <v>2</v>
-      </c>
-      <c r="I99" s="3">
-        <v>3</v>
-      </c>
-      <c r="J99" s="3">
-        <v>2</v>
-      </c>
-      <c r="K99" s="3">
-        <v>2</v>
-      </c>
-      <c r="L99" s="3">
-        <v>2</v>
-      </c>
-      <c r="M99" s="3">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" ht="69" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>22117075</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C100" s="1">
-        <v>2</v>
-      </c>
-      <c r="D100" s="2">
-        <v>3.03</v>
-      </c>
-      <c r="E100" s="2">
-        <v>2.79</v>
-      </c>
-      <c r="F100" s="2">
-        <v>2.84</v>
-      </c>
-      <c r="G100" s="2">
-        <v>3.03</v>
-      </c>
-      <c r="H100" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I100" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="J100" s="3">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="L100" s="3">
-        <v>3</v>
-      </c>
-      <c r="M100" s="3">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/document/data-latih/Book1.xlsx
+++ b/assets/document/data-latih/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arlan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BE8C396-87A4-480E-A628-66D2BC1DA757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56FE8459-2651-44FC-A9E0-5CC34EFB45DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24045" yWindow="-1920" windowWidth="20700" windowHeight="11565" xr2:uid="{50BDED58-6943-435A-8661-E219452A30B4}"/>
+    <workbookView xWindow="-26475" yWindow="-1800" windowWidth="20700" windowHeight="11565" xr2:uid="{28F501EC-74D9-4068-B20E-8BBDD952D50D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -561,7 +561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCE0798-8B00-418C-8015-C52D8E1D8C51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4617F9DC-02E4-4767-A69F-E987C17C12C9}">
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
